--- a/biology/Botanique/Ernst_Heinrich_Georg_Ule/Ernst_Heinrich_Georg_Ule.xlsx
+++ b/biology/Botanique/Ernst_Heinrich_Georg_Ule/Ernst_Heinrich_Georg_Ule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst Heinrich Georg Ule (né le 12 mars 1854 à Halle an der Saale, mort le 15 juillet 1915 à Berlin) est un botaniste et explorateur prussien. Son fils, Otto Eduard Vincenz Ule (1820-1876), fut un écrivain scientifique et son frère, Willi Ule (de) (1861–1940), un géographe.
 </t>
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Après une formation initiale de jardinier, il émigra en 1883 au Brésil, où il a travaillé comme tuteur privé et collecteur botanique. 
 Par la suite il a exercé les fonctions de naturalista viajante (naturaliste itinérant) au Musée national de Rio de Janeiro, où il fut nommé sous-directeur en 1895, puis directeur du département de botanique.
-En 1900-1903, il entreprit une expédition scientifique dans la région Amazonas au Brésil, en menant également des études botaniques dans les pays voisins. À son retour en Allemagne, il travailla comme assistant scientifique au jardin botanique et musée de Berlin-Dahlem (1913-1914)[1].
+En 1900-1903, il entreprit une expédition scientifique dans la région Amazonas au Brésil, en menant également des études botaniques dans les pays voisins. À son retour en Allemagne, il travailla comme assistant scientifique au jardin botanique et musée de Berlin-Dahlem (1913-1914).
 Plusieurs genres botaniques ont été nommés en hommage à Ernst Heinrich Georg Ule, notamment :
 Uleanthus, famille des Fabaceae, nommé par Hermann Harms (1870–1942).
 Ulearum (en), famille des Araceae, nommé par Adolf Engler (1844–1930).
 Uleiorchis (en), famille des Orchidaceae, nommé par Frederico Carlos Hoehne (de) (1882–1959).
 Uleodendron (en), famille des Moraceae, nommé par Stephan Rauschert (1931–1986).
-Uleophytum (en), famille des Asteraceae, nommé par Georg Hieronymus (1846–1921)[2].</t>
+Uleophytum (en), famille des Asteraceae, nommé par Georg Hieronymus (1846–1921).</t>
         </is>
       </c>
     </row>
@@ -549,12 +563,14 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Kautschukgewinnung und Kautschukhandel am Amazonenstrome, 1906 - Production et commerce du caoutchouc dans le  bassin de l'Amazone.
 Das Innere von Nordost-Brasilien, 1908 - l'hinterland du Nord-est du Brésil.
 Krautshukgewinnung und Kautschukhandel in Bahia, 1908 - Production et commerce du caoutchouc à Bahia.
-Biologische Beobachtungen im Amazonasgebiet, 1915 - Observations biologiques en Amazonie[3]</t>
+Biologische Beobachtungen im Amazonasgebiet, 1915 - Observations biologiques en Amazonie</t>
         </is>
       </c>
     </row>
